--- a/Analysis_Data_HC_raw.xlsx
+++ b/Analysis_Data_HC_raw.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Project2502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F777AE12-1FEB-4EA6-9692-D7A3EEEDECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712B0E9-2CE4-4645-9EBA-7130862680A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9B1B0541-7889-4D1D-82F3-132ADF93E9EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B1B0541-7889-4D1D-82F3-132ADF93E9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,76 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
-  <si>
-    <t>ASSET &amp; WEALTH MANAGEMENT</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>COMMERCIAL BANK</t>
-  </si>
-  <si>
-    <t>CONSUMER &amp; COMMUNITY BANKING</t>
-  </si>
-  <si>
-    <t>CORPORATE &amp; INVESTMENT BANK</t>
-  </si>
-  <si>
-    <t>CORPORATE SECTOR</t>
-  </si>
-  <si>
-    <t>Headcount-Full Time</t>
-  </si>
-  <si>
-    <t>Headcount-PT w/o Ben</t>
-  </si>
-  <si>
-    <t>Headcount-PT with Be</t>
-  </si>
-  <si>
-    <t>Interns - Full Time</t>
-  </si>
-  <si>
-    <t>Interns - PT less th</t>
-  </si>
-  <si>
-    <t>Interns - PT more th</t>
-  </si>
-  <si>
-    <t>Temp/Indiv Cont-T&amp;M</t>
-  </si>
-  <si>
-    <t>Projects/SOW - T&amp;M</t>
-  </si>
-  <si>
-    <t>Managed Services - T</t>
-  </si>
-  <si>
-    <t>Temp/Indiv Contracto</t>
-  </si>
-  <si>
-    <t>Managed Services - U</t>
-  </si>
-  <si>
-    <t>Projects/SOW - Unmap</t>
-  </si>
-  <si>
-    <t>Projects/SOW - FPC</t>
-  </si>
-  <si>
-    <t>Temp/Individual Cont</t>
-  </si>
-  <si>
-    <t>Managed Services - F</t>
-  </si>
-  <si>
-    <t>Permitted Access Ind</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Month</t>
   </si>
@@ -129,77 +58,13 @@
   <si>
     <t>Terminate</t>
   </si>
-  <si>
-    <t>Financial value - PL</t>
-  </si>
-  <si>
-    <t>Center Node 04</t>
-  </si>
-  <si>
-    <t>ASSET &amp; WEALTH MANAG</t>
-  </si>
-  <si>
-    <t>CONSUMER &amp; COMMUNITY</t>
-  </si>
-  <si>
-    <t>CORPORATE &amp; INVESTME</t>
-  </si>
-  <si>
-    <t>81200210</t>
-  </si>
-  <si>
-    <t>81200211</t>
-  </si>
-  <si>
-    <t>81200212</t>
-  </si>
-  <si>
-    <t>81200214</t>
-  </si>
-  <si>
-    <t>81200215</t>
-  </si>
-  <si>
-    <t>81200216</t>
-  </si>
-  <si>
-    <t>81200224</t>
-  </si>
-  <si>
-    <t>81200225</t>
-  </si>
-  <si>
-    <t>81200227</t>
-  </si>
-  <si>
-    <t>81200229</t>
-  </si>
-  <si>
-    <t>81200237</t>
-  </si>
-  <si>
-    <t>81200238</t>
-  </si>
-  <si>
-    <t>81200271</t>
-  </si>
-  <si>
-    <t>81200272</t>
-  </si>
-  <si>
-    <t>81200273</t>
-  </si>
-  <si>
-    <t>81200274</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\);#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -238,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -278,36 +143,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="3" tint="0.59996337778862885"/>
       </left>
       <right style="thin">
@@ -330,24 +165,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -667,378 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052C9B2-A9AE-4900-8B8D-ACD323BFFD61}">
-  <dimension ref="A2:G33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>122021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>22848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>122021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1719</v>
-      </c>
-      <c r="G3">
-        <f>(E3+E4+E6+E9+E10)/(E2+E5+E7+E8+E11)</f>
-        <v>0.17084587094617185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>122021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>122021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>12925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>122021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>8701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>122021</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>128938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>122021</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>68320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>122021</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>6681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>122021</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>28637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>122021</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>39150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>122020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>122020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>239934</v>
-      </c>
-      <c r="E16" s="5">
-        <f>SUM(C16:C21)</f>
-        <v>256379</v>
-      </c>
-      <c r="F16">
-        <f>E16/C33</f>
-        <v>0.86798680985333754</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>267</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>15417</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>443</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>520</v>
-      </c>
-      <c r="E22" s="5">
-        <f>SUM(C22:C32)</f>
-        <v>38993</v>
-      </c>
-      <c r="F22">
-        <f>E22/C33</f>
-        <v>0.13201319014666252</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6994</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>26271</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="5">
-        <f>SUM(C16:C32)</f>
-        <v>295372</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F38727-97DE-4E1A-B84E-ED3378950240}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,27 +510,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1089,10 +548,10 @@
       <c r="E2">
         <v>38813</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1">
         <v>-2360</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="3">
         <v>5367754214.0100002</v>
       </c>
     </row>
@@ -1100,13 +559,13 @@
       <c r="A3">
         <v>201902</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>-2263</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>5453119475.9899998</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1124,10 +583,10 @@
       <c r="E4">
         <v>39743</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>-3966</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
         <v>5527625881.9800005</v>
       </c>
     </row>
@@ -1135,10 +594,10 @@
       <c r="A5">
         <v>201904</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>-3873</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>5367286525.000001</v>
       </c>
     </row>
@@ -1146,10 +605,10 @@
       <c r="A6">
         <v>201905</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>-4029</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="3">
         <v>5427404579.9900007</v>
       </c>
     </row>
@@ -1169,7 +628,7 @@
       <c r="E7">
         <v>40269</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>5460975560.0100002</v>
       </c>
     </row>
@@ -1189,10 +648,10 @@
       <c r="E8">
         <v>40836</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>-3526</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="3">
         <v>5514152279.9899988</v>
       </c>
     </row>
@@ -1212,10 +671,10 @@
       <c r="E9">
         <v>40941</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>-4463</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <v>5294418929.0099993</v>
       </c>
     </row>
@@ -1238,7 +697,7 @@
       <c r="F10">
         <v>-3307</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>5562963591.9899998</v>
       </c>
     </row>
@@ -1258,10 +717,10 @@
       <c r="E11">
         <v>40495</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
         <v>-3499</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="3">
         <v>5431569466</v>
       </c>
     </row>
@@ -1281,10 +740,10 @@
       <c r="E12">
         <v>39452</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="1">
         <v>-3121</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
         <v>5372738622.0100002</v>
       </c>
     </row>
@@ -1304,10 +763,10 @@
       <c r="E13">
         <v>39025</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>-2536</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="3">
         <v>5488578409.0099993</v>
       </c>
     </row>
@@ -1330,10 +789,10 @@
       <c r="F14">
         <v>-2322</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="3">
         <v>5548936902.039999</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1354,10 +813,10 @@
       <c r="F15">
         <v>-2477</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="3">
         <v>5586125909.9300003</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1378,10 +837,10 @@
       <c r="F16">
         <v>-3460</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>5655456000.9200001</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1402,10 +861,10 @@
       <c r="F17">
         <v>-1723</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>5479073629.9700003</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1426,10 +885,10 @@
       <c r="F18">
         <v>-1450</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="3">
         <v>5365968364.9699993</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1450,10 +909,10 @@
       <c r="F19">
         <v>-1907</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="3">
         <v>6097433114.9699993</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1471,13 +930,13 @@
       <c r="E20">
         <v>39693</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>-2347</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="3">
         <v>5226515018.9499998</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1495,13 +954,13 @@
       <c r="E21">
         <v>39348</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="1">
         <v>-3072</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="3">
         <v>5328335988.96</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1519,13 +978,13 @@
       <c r="E22">
         <v>39129</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="1">
         <v>-2658</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="3">
         <v>6320188956.9899998</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1543,13 +1002,13 @@
       <c r="E23">
         <v>39639</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="1">
         <v>-3012</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>5195992907.9499998</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1567,13 +1026,13 @@
       <c r="E24">
         <v>38993</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="1">
         <v>-2978</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="3">
         <v>5383124130.960001</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1591,13 +1050,13 @@
       <c r="E25">
         <v>39347</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="1">
         <v>-2366</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="3">
         <v>5469184358.960001</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1615,10 +1074,10 @@
       <c r="E26">
         <v>40016</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="1">
         <v>-2322</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="3">
         <v>5781318297.9799995</v>
       </c>
     </row>
@@ -1638,10 +1097,10 @@
       <c r="E27">
         <v>40793</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
         <v>-2340</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="3">
         <v>6485118656</v>
       </c>
     </row>
@@ -1661,10 +1120,10 @@
       <c r="E28">
         <v>41323</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="1">
         <v>-3380</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="3">
         <v>6458215153.9899998</v>
       </c>
     </row>
@@ -1684,10 +1143,10 @@
       <c r="E29">
         <v>42379</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="1">
         <v>-4332</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="3">
         <v>5771060621</v>
       </c>
     </row>
@@ -1707,10 +1166,10 @@
       <c r="E30">
         <v>42650</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="1">
         <v>-4374</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="3">
         <v>5761497750</v>
       </c>
     </row>
@@ -1733,7 +1192,7 @@
       <c r="F31">
         <v>-4209</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="3">
         <v>6134629682.8700008</v>
       </c>
     </row>
@@ -1753,10 +1212,10 @@
       <c r="E32">
         <v>44111</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="1">
         <v>-4904</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="3">
         <v>5635403313.2399998</v>
       </c>
     </row>
@@ -1776,10 +1235,10 @@
       <c r="E33">
         <v>45094</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="1">
         <v>-4047</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="3">
         <v>5815147584.75</v>
       </c>
     </row>
@@ -1799,10 +1258,10 @@
       <c r="E34">
         <v>45631</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="1">
         <v>-4119</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="3">
         <v>5613198593.3500004</v>
       </c>
     </row>
@@ -1822,10 +1281,10 @@
       <c r="E35">
         <v>46805</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="1">
         <v>-3947</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="3">
         <v>5804690570.3199997</v>
       </c>
     </row>
@@ -1845,10 +1304,10 @@
       <c r="E36">
         <v>46501</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="1">
         <v>-3746</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="3">
         <v>5838129642.1199999</v>
       </c>
     </row>
@@ -1868,10 +1327,10 @@
       <c r="E37">
         <v>46761</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="1">
         <v>-3432</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="3">
         <v>6244827046.0599995</v>
       </c>
     </row>
@@ -1891,10 +1350,10 @@
       <c r="E38">
         <v>47758</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="1">
         <v>-3353</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="3">
         <v>6267200552.5099993</v>
       </c>
     </row>
@@ -1914,10 +1373,10 @@
       <c r="E39">
         <v>48734</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="1">
         <v>-3347</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="3">
         <v>6316088567.6900005</v>
       </c>
     </row>
@@ -1937,10 +1396,10 @@
       <c r="E40">
         <v>49747</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="1">
         <v>-5005</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="3">
         <v>6607571113.6199999</v>
       </c>
     </row>
@@ -1960,10 +1419,10 @@
       <c r="E41">
         <v>51296</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="1">
         <v>-5655</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="3">
         <v>6196653846.9399996</v>
       </c>
     </row>
@@ -1983,10 +1442,10 @@
       <c r="E42">
         <v>50544</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="1">
         <v>-4610</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="3">
         <v>6304692190.1500006</v>
       </c>
     </row>
@@ -2006,10 +1465,10 @@
       <c r="E43">
         <v>51694</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="1">
         <v>-4569</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="3">
         <v>6248401310.4099998</v>
       </c>
     </row>
@@ -2029,10 +1488,10 @@
       <c r="E44">
         <v>52603</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="1">
         <v>-4641</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="3">
         <v>6328446493.9500008</v>
       </c>
     </row>
@@ -2052,10 +1511,10 @@
       <c r="E45">
         <v>53226</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="1">
         <v>-4693</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="3">
         <v>6409917955.5100002</v>
       </c>
     </row>
@@ -2075,10 +1534,10 @@
       <c r="E46">
         <v>52928</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="1">
         <v>-3788</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="3">
         <v>6439338266.0400009</v>
       </c>
     </row>
@@ -2098,10 +1557,10 @@
       <c r="E47">
         <v>50560</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="1">
         <v>-3362</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="3">
         <v>6311456310.079999</v>
       </c>
     </row>
@@ -2121,10 +1580,10 @@
       <c r="E48">
         <v>50037</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="1">
         <v>-3308</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="3">
         <v>6417671529.7400007</v>
       </c>
     </row>
@@ -2144,10 +1603,10 @@
       <c r="E49">
         <v>49329</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="1">
         <v>-2678</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="3">
         <v>6293637496.8299999</v>
       </c>
     </row>
@@ -2167,10 +1626,10 @@
       <c r="E50">
         <v>49488</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="1">
         <v>-2447</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="3">
         <v>6597455280.7800007</v>
       </c>
     </row>
@@ -2190,10 +1649,10 @@
       <c r="E51">
         <v>49806</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="1">
         <v>-2245</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="3">
         <v>6748217559.5</v>
       </c>
     </row>
@@ -2213,10 +1672,10 @@
       <c r="E52">
         <v>49491</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="1">
         <v>-4027</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="3">
         <v>6761776468.2299995</v>
       </c>
     </row>
@@ -2239,7 +1698,7 @@
       <c r="F53">
         <v>-3345</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="3">
         <v>6515768436.2800007</v>
       </c>
     </row>
@@ -2262,7 +1721,7 @@
       <c r="F54">
         <v>-3322</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="3">
         <v>7013364431.71</v>
       </c>
     </row>
@@ -2285,7 +1744,7 @@
       <c r="F55">
         <v>-3013</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="3">
         <v>7292365709.4000015</v>
       </c>
     </row>
@@ -2308,7 +1767,7 @@
       <c r="F56">
         <v>-3528</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="3">
         <v>6943961563.4800005</v>
       </c>
     </row>
@@ -2331,7 +1790,7 @@
       <c r="F57">
         <v>-3443</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="3">
         <v>7125336886.7199993</v>
       </c>
     </row>
@@ -2354,7 +1813,7 @@
       <c r="F58">
         <v>-3236</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="3">
         <v>7688131046.4499998</v>
       </c>
     </row>
@@ -2377,7 +1836,7 @@
       <c r="F59">
         <v>-2681</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="3">
         <v>6993508342.5599995</v>
       </c>
     </row>
@@ -2400,7 +1859,7 @@
       <c r="F60">
         <v>-2562</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="3">
         <v>9804054357.8800011</v>
       </c>
     </row>
@@ -2423,536 +1882,8 @@
       <c r="F61">
         <v>-2460</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="3">
         <v>7688805201.6700001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A007674B-8A09-471D-9F59-41F2801A407B}">
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>201904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>201905</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>23941</v>
-      </c>
-      <c r="E34">
-        <v>11076</v>
-      </c>
-      <c r="F34">
-        <v>113297</v>
-      </c>
-      <c r="G34">
-        <v>54079</v>
-      </c>
-      <c r="H34">
-        <v>37098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>201905</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>28</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>51</v>
-      </c>
-      <c r="G35">
-        <v>178</v>
-      </c>
-      <c r="H35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>201905</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>252</v>
-      </c>
-      <c r="E36">
-        <v>37</v>
-      </c>
-      <c r="F36">
-        <v>15196</v>
-      </c>
-      <c r="G36">
-        <v>765</v>
-      </c>
-      <c r="H36">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>201905</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-      <c r="G37">
-        <v>303</v>
-      </c>
-      <c r="H37">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>201905</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>34</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>26</v>
-      </c>
-      <c r="G38">
-        <v>150</v>
-      </c>
-      <c r="H38">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>201905</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>144</v>
-      </c>
-      <c r="H39">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>201905</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>91</v>
-      </c>
-      <c r="E40">
-        <v>26</v>
-      </c>
-      <c r="F40">
-        <v>438</v>
-      </c>
-      <c r="G40">
-        <v>256</v>
-      </c>
-      <c r="H40">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>201905</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>312</v>
-      </c>
-      <c r="E41">
-        <v>130</v>
-      </c>
-      <c r="F41">
-        <v>528</v>
-      </c>
-      <c r="G41">
-        <v>886</v>
-      </c>
-      <c r="H41">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>201905</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>536</v>
-      </c>
-      <c r="E42">
-        <v>161</v>
-      </c>
-      <c r="F42">
-        <v>3215</v>
-      </c>
-      <c r="G42">
-        <v>3290</v>
-      </c>
-      <c r="H42">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>201905</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>9</v>
-      </c>
-      <c r="H43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>201905</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>201905</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>201905</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>201905</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47">
-        <v>144</v>
-      </c>
-      <c r="E47">
-        <v>84</v>
-      </c>
-      <c r="F47">
-        <v>1464</v>
-      </c>
-      <c r="G47">
-        <v>748</v>
-      </c>
-      <c r="H47">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>201905</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>201905</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49">
-        <v>477</v>
-      </c>
-      <c r="E49">
-        <v>287</v>
-      </c>
-      <c r="F49">
-        <v>1722</v>
-      </c>
-      <c r="G49">
-        <v>1111</v>
-      </c>
-      <c r="H49">
-        <v>18978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>92</v>
-      </c>
-      <c r="G50">
-        <v>102</v>
-      </c>
-      <c r="H50">
-        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Data_HC_raw.xlsx
+++ b/Analysis_Data_HC_raw.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Project2502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712B0E9-2CE4-4645-9EBA-7130862680A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153347F2-9A04-4E45-AE71-339A9F4889C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B1B0541-7889-4D1D-82F3-132ADF93E9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,9 +41,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Operational Cost</t>
-  </si>
-  <si>
     <t>FullTime</t>
   </si>
   <si>
@@ -58,14 +55,16 @@
   <si>
     <t>Terminate</t>
   </si>
+  <si>
+    <t>OperationalCost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
-    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\);#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,14 +168,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,45 +490,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F38727-97DE-4E1A-B84E-ED3378950240}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201901</v>
       </c>
@@ -549,25 +542,24 @@
         <v>38813</v>
       </c>
       <c r="F2" s="1">
-        <v>-2360</v>
+        <v>2360</v>
       </c>
       <c r="G2" s="3">
         <v>5367754214.0100002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201902</v>
       </c>
       <c r="F3" s="1">
-        <v>-2263</v>
+        <v>2263</v>
       </c>
       <c r="G3" s="3">
         <v>5453119475.9899998</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201903</v>
       </c>
@@ -584,35 +576,35 @@
         <v>39743</v>
       </c>
       <c r="F4" s="1">
-        <v>-3966</v>
+        <v>3966</v>
       </c>
       <c r="G4" s="3">
         <v>5527625881.9800005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201904</v>
       </c>
       <c r="F5" s="1">
-        <v>-3873</v>
+        <v>3873</v>
       </c>
       <c r="G5" s="3">
         <v>5367286525.000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>201905</v>
       </c>
       <c r="F6" s="1">
-        <v>-4029</v>
+        <v>4029</v>
       </c>
       <c r="G6" s="3">
         <v>5427404579.9900007</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>201906</v>
       </c>
@@ -632,7 +624,7 @@
         <v>5460975560.0100002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201907</v>
       </c>
@@ -649,13 +641,13 @@
         <v>40836</v>
       </c>
       <c r="F8" s="1">
-        <v>-3526</v>
+        <v>3526</v>
       </c>
       <c r="G8" s="3">
         <v>5514152279.9899988</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>201908</v>
       </c>
@@ -672,13 +664,13 @@
         <v>40941</v>
       </c>
       <c r="F9" s="1">
-        <v>-4463</v>
+        <v>4463</v>
       </c>
       <c r="G9" s="3">
         <v>5294418929.0099993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>201909</v>
       </c>
@@ -695,13 +687,13 @@
         <v>40860</v>
       </c>
       <c r="F10">
-        <v>-3307</v>
+        <v>3307</v>
       </c>
       <c r="G10" s="3">
         <v>5562963591.9899998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>201910</v>
       </c>
@@ -718,13 +710,13 @@
         <v>40495</v>
       </c>
       <c r="F11" s="1">
-        <v>-3499</v>
+        <v>3499</v>
       </c>
       <c r="G11" s="3">
         <v>5431569466</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>201911</v>
       </c>
@@ -741,13 +733,13 @@
         <v>39452</v>
       </c>
       <c r="F12" s="1">
-        <v>-3121</v>
+        <v>3121</v>
       </c>
       <c r="G12" s="3">
         <v>5372738622.0100002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201912</v>
       </c>
@@ -764,13 +756,13 @@
         <v>39025</v>
       </c>
       <c r="F13" s="1">
-        <v>-2536</v>
+        <v>2536</v>
       </c>
       <c r="G13" s="3">
         <v>5488578409.0099993</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>202001</v>
       </c>
@@ -787,14 +779,13 @@
         <v>39072</v>
       </c>
       <c r="F14">
-        <v>-2322</v>
+        <v>2322</v>
       </c>
       <c r="G14" s="3">
         <v>5548936902.039999</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>202002</v>
       </c>
@@ -811,14 +802,13 @@
         <v>39071</v>
       </c>
       <c r="F15">
-        <v>-2477</v>
+        <v>2477</v>
       </c>
       <c r="G15" s="3">
         <v>5586125909.9300003</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>202003</v>
       </c>
@@ -835,14 +825,13 @@
         <v>39440</v>
       </c>
       <c r="F16">
-        <v>-3460</v>
+        <v>3460</v>
       </c>
       <c r="G16" s="3">
         <v>5655456000.9200001</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>202004</v>
       </c>
@@ -859,14 +848,13 @@
         <v>39764</v>
       </c>
       <c r="F17">
-        <v>-1723</v>
+        <v>1723</v>
       </c>
       <c r="G17" s="3">
         <v>5479073629.9700003</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>202005</v>
       </c>
@@ -883,14 +871,13 @@
         <v>39641</v>
       </c>
       <c r="F18">
-        <v>-1450</v>
+        <v>1450</v>
       </c>
       <c r="G18" s="3">
         <v>5365968364.9699993</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>202006</v>
       </c>
@@ -907,14 +894,13 @@
         <v>39620</v>
       </c>
       <c r="F19">
-        <v>-1907</v>
+        <v>1907</v>
       </c>
       <c r="G19" s="3">
         <v>6097433114.9699993</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>202007</v>
       </c>
@@ -931,14 +917,13 @@
         <v>39693</v>
       </c>
       <c r="F20" s="1">
-        <v>-2347</v>
+        <v>2347</v>
       </c>
       <c r="G20" s="3">
         <v>5226515018.9499998</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202008</v>
       </c>
@@ -955,14 +940,13 @@
         <v>39348</v>
       </c>
       <c r="F21" s="1">
-        <v>-3072</v>
+        <v>3072</v>
       </c>
       <c r="G21" s="3">
         <v>5328335988.96</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>202009</v>
       </c>
@@ -979,14 +963,13 @@
         <v>39129</v>
       </c>
       <c r="F22" s="1">
-        <v>-2658</v>
+        <v>2658</v>
       </c>
       <c r="G22" s="3">
         <v>6320188956.9899998</v>
       </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>202010</v>
       </c>
@@ -1003,14 +986,13 @@
         <v>39639</v>
       </c>
       <c r="F23" s="1">
-        <v>-3012</v>
+        <v>3012</v>
       </c>
       <c r="G23" s="3">
         <v>5195992907.9499998</v>
       </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>202011</v>
       </c>
@@ -1027,14 +1009,13 @@
         <v>38993</v>
       </c>
       <c r="F24" s="1">
-        <v>-2978</v>
+        <v>2978</v>
       </c>
       <c r="G24" s="3">
         <v>5383124130.960001</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>202012</v>
       </c>
@@ -1051,14 +1032,13 @@
         <v>39347</v>
       </c>
       <c r="F25" s="1">
-        <v>-2366</v>
+        <v>2366</v>
       </c>
       <c r="G25" s="3">
         <v>5469184358.960001</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>202101</v>
       </c>
@@ -1075,13 +1055,13 @@
         <v>40016</v>
       </c>
       <c r="F26" s="1">
-        <v>-2322</v>
+        <v>2322</v>
       </c>
       <c r="G26" s="3">
         <v>5781318297.9799995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>202102</v>
       </c>
@@ -1098,13 +1078,13 @@
         <v>40793</v>
       </c>
       <c r="F27" s="1">
-        <v>-2340</v>
+        <v>2340</v>
       </c>
       <c r="G27" s="3">
         <v>6485118656</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>202103</v>
       </c>
@@ -1121,13 +1101,13 @@
         <v>41323</v>
       </c>
       <c r="F28" s="1">
-        <v>-3380</v>
+        <v>3380</v>
       </c>
       <c r="G28" s="3">
         <v>6458215153.9899998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>202104</v>
       </c>
@@ -1144,13 +1124,13 @@
         <v>42379</v>
       </c>
       <c r="F29" s="1">
-        <v>-4332</v>
+        <v>4332</v>
       </c>
       <c r="G29" s="3">
         <v>5771060621</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>202105</v>
       </c>
@@ -1167,13 +1147,13 @@
         <v>42650</v>
       </c>
       <c r="F30" s="1">
-        <v>-4374</v>
+        <v>4374</v>
       </c>
       <c r="G30" s="3">
         <v>5761497750</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>202106</v>
       </c>
@@ -1190,13 +1170,13 @@
         <v>43273</v>
       </c>
       <c r="F31">
-        <v>-4209</v>
+        <v>4209</v>
       </c>
       <c r="G31" s="3">
         <v>6134629682.8700008</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>202107</v>
       </c>
@@ -1213,7 +1193,7 @@
         <v>44111</v>
       </c>
       <c r="F32" s="1">
-        <v>-4904</v>
+        <v>4904</v>
       </c>
       <c r="G32" s="3">
         <v>5635403313.2399998</v>
@@ -1236,7 +1216,7 @@
         <v>45094</v>
       </c>
       <c r="F33" s="1">
-        <v>-4047</v>
+        <v>4047</v>
       </c>
       <c r="G33" s="3">
         <v>5815147584.75</v>
@@ -1259,7 +1239,7 @@
         <v>45631</v>
       </c>
       <c r="F34" s="1">
-        <v>-4119</v>
+        <v>4119</v>
       </c>
       <c r="G34" s="3">
         <v>5613198593.3500004</v>
@@ -1282,7 +1262,7 @@
         <v>46805</v>
       </c>
       <c r="F35" s="1">
-        <v>-3947</v>
+        <v>3947</v>
       </c>
       <c r="G35" s="3">
         <v>5804690570.3199997</v>
@@ -1305,7 +1285,7 @@
         <v>46501</v>
       </c>
       <c r="F36" s="1">
-        <v>-3746</v>
+        <v>3746</v>
       </c>
       <c r="G36" s="3">
         <v>5838129642.1199999</v>
@@ -1328,7 +1308,7 @@
         <v>46761</v>
       </c>
       <c r="F37" s="1">
-        <v>-3432</v>
+        <v>3432</v>
       </c>
       <c r="G37" s="3">
         <v>6244827046.0599995</v>
@@ -1351,7 +1331,7 @@
         <v>47758</v>
       </c>
       <c r="F38" s="1">
-        <v>-3353</v>
+        <v>3353</v>
       </c>
       <c r="G38" s="3">
         <v>6267200552.5099993</v>
@@ -1374,7 +1354,7 @@
         <v>48734</v>
       </c>
       <c r="F39" s="1">
-        <v>-3347</v>
+        <v>3347</v>
       </c>
       <c r="G39" s="3">
         <v>6316088567.6900005</v>
@@ -1397,7 +1377,7 @@
         <v>49747</v>
       </c>
       <c r="F40" s="1">
-        <v>-5005</v>
+        <v>5005</v>
       </c>
       <c r="G40" s="3">
         <v>6607571113.6199999</v>
@@ -1420,7 +1400,7 @@
         <v>51296</v>
       </c>
       <c r="F41" s="1">
-        <v>-5655</v>
+        <v>5655</v>
       </c>
       <c r="G41" s="3">
         <v>6196653846.9399996</v>
@@ -1443,7 +1423,7 @@
         <v>50544</v>
       </c>
       <c r="F42" s="1">
-        <v>-4610</v>
+        <v>4610</v>
       </c>
       <c r="G42" s="3">
         <v>6304692190.1500006</v>
@@ -1466,7 +1446,7 @@
         <v>51694</v>
       </c>
       <c r="F43" s="1">
-        <v>-4569</v>
+        <v>4569</v>
       </c>
       <c r="G43" s="3">
         <v>6248401310.4099998</v>
@@ -1489,7 +1469,7 @@
         <v>52603</v>
       </c>
       <c r="F44" s="1">
-        <v>-4641</v>
+        <v>4641</v>
       </c>
       <c r="G44" s="3">
         <v>6328446493.9500008</v>
@@ -1512,7 +1492,7 @@
         <v>53226</v>
       </c>
       <c r="F45" s="1">
-        <v>-4693</v>
+        <v>4693</v>
       </c>
       <c r="G45" s="3">
         <v>6409917955.5100002</v>
@@ -1535,7 +1515,7 @@
         <v>52928</v>
       </c>
       <c r="F46" s="1">
-        <v>-3788</v>
+        <v>3788</v>
       </c>
       <c r="G46" s="3">
         <v>6439338266.0400009</v>
@@ -1558,7 +1538,7 @@
         <v>50560</v>
       </c>
       <c r="F47" s="1">
-        <v>-3362</v>
+        <v>3362</v>
       </c>
       <c r="G47" s="3">
         <v>6311456310.079999</v>
@@ -1581,7 +1561,7 @@
         <v>50037</v>
       </c>
       <c r="F48" s="1">
-        <v>-3308</v>
+        <v>3308</v>
       </c>
       <c r="G48" s="3">
         <v>6417671529.7400007</v>
@@ -1604,7 +1584,7 @@
         <v>49329</v>
       </c>
       <c r="F49" s="1">
-        <v>-2678</v>
+        <v>2678</v>
       </c>
       <c r="G49" s="3">
         <v>6293637496.8299999</v>
@@ -1627,7 +1607,7 @@
         <v>49488</v>
       </c>
       <c r="F50" s="1">
-        <v>-2447</v>
+        <v>2447</v>
       </c>
       <c r="G50" s="3">
         <v>6597455280.7800007</v>
@@ -1650,7 +1630,7 @@
         <v>49806</v>
       </c>
       <c r="F51" s="1">
-        <v>-2245</v>
+        <v>2245</v>
       </c>
       <c r="G51" s="3">
         <v>6748217559.5</v>
@@ -1673,7 +1653,7 @@
         <v>49491</v>
       </c>
       <c r="F52" s="1">
-        <v>-4027</v>
+        <v>4027</v>
       </c>
       <c r="G52" s="3">
         <v>6761776468.2299995</v>
@@ -1696,7 +1676,7 @@
         <v>49499</v>
       </c>
       <c r="F53">
-        <v>-3345</v>
+        <v>3345</v>
       </c>
       <c r="G53" s="3">
         <v>6515768436.2800007</v>
@@ -1719,7 +1699,7 @@
         <v>49814</v>
       </c>
       <c r="F54">
-        <v>-3322</v>
+        <v>3322</v>
       </c>
       <c r="G54" s="3">
         <v>7013364431.71</v>
@@ -1742,7 +1722,7 @@
         <v>51298</v>
       </c>
       <c r="F55">
-        <v>-3013</v>
+        <v>3013</v>
       </c>
       <c r="G55" s="3">
         <v>7292365709.4000015</v>
@@ -1765,7 +1745,7 @@
         <v>52301</v>
       </c>
       <c r="F56">
-        <v>-3528</v>
+        <v>3528</v>
       </c>
       <c r="G56" s="3">
         <v>6943961563.4800005</v>
@@ -1788,7 +1768,7 @@
         <v>53114</v>
       </c>
       <c r="F57">
-        <v>-3443</v>
+        <v>3443</v>
       </c>
       <c r="G57" s="3">
         <v>7125336886.7199993</v>
@@ -1811,7 +1791,7 @@
         <v>53343</v>
       </c>
       <c r="F58">
-        <v>-3236</v>
+        <v>3236</v>
       </c>
       <c r="G58" s="3">
         <v>7688131046.4499998</v>
@@ -1834,7 +1814,7 @@
         <v>53685</v>
       </c>
       <c r="F59">
-        <v>-2681</v>
+        <v>2681</v>
       </c>
       <c r="G59" s="3">
         <v>6993508342.5599995</v>
@@ -1857,7 +1837,7 @@
         <v>53934</v>
       </c>
       <c r="F60">
-        <v>-2562</v>
+        <v>2562</v>
       </c>
       <c r="G60" s="3">
         <v>9804054357.8800011</v>
@@ -1880,7 +1860,7 @@
         <v>53854</v>
       </c>
       <c r="F61">
-        <v>-2460</v>
+        <v>2460</v>
       </c>
       <c r="G61" s="3">
         <v>7688805201.6700001</v>
